--- a/biology/Médecine/Anatomie_humaine_descriptive,_topographique_et_fonctionnelle/Anatomie_humaine_descriptive,_topographique_et_fonctionnelle.xlsx
+++ b/biology/Médecine/Anatomie_humaine_descriptive,_topographique_et_fonctionnelle/Anatomie_humaine_descriptive,_topographique_et_fonctionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Anatomie humaine descriptive, topographique et fonctionnelle (initialement l'Anatomie humaine descriptive et topographique) ou le « Rouvière[1] » est un ouvrage d'anatomie humaine français de référence publié aux éditions Masson, dont la première édition date de 1924, et la dernière, la quinzième, date de 2002.
-Son auteur initial est Henri Rouvière (1861 - 1939), secondé par la suite par André Delmas (1910 - 1999)[2]. La dernière édition est révisée par Vincent Delmas et comporte quatre volumes[1] :
+L'Anatomie humaine descriptive, topographique et fonctionnelle (initialement l'Anatomie humaine descriptive et topographique) ou le « Rouvière » est un ouvrage d'anatomie humaine français de référence publié aux éditions Masson, dont la première édition date de 1924, et la dernière, la quinzième, date de 2002.
+Son auteur initial est Henri Rouvière (1861 - 1939), secondé par la suite par André Delmas (1910 - 1999). La dernière édition est révisée par Vincent Delmas et comporte quatre volumes :
 tome I, Tête et cou, 654 pages  (ISBN 9782294003912), consacré à la tête et au cou ;
 tome II, Tronc, 725 pages  (ISBN 9782294003929), consacré au tronc ;
 tome III, Membres, 667 pages  (ISBN 9782294003936), consacré aux membres supérieur et inférieur ;
